--- a/totalA2 100FINAL.xlsx
+++ b/totalA2 100FINAL.xlsx
@@ -540,22 +540,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>89.5</v>
+        <v>70.94</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>89.53</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>89.53</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>350</v>
       </c>
       <c r="P3">
-        <v>19410</v>
+        <v>19209</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>31.63</v>
+        <v>18.33</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>400</v>
       </c>
       <c r="P4">
-        <v>21232</v>
+        <v>21099</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>87.13</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>26.97</v>
+        <v>22.72</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>87.12</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>299.19</v>
       </c>
       <c r="P5">
-        <v>15228</v>
+        <v>15186</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>30.61</v>
+        <v>16.32</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>92.14</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>400</v>
       </c>
       <c r="P6">
-        <v>21227</v>
+        <v>21084</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -740,13 +740,13 @@
         <v>104.56</v>
       </c>
       <c r="E7">
-        <v>40.44</v>
+        <v>16.56</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>89.47</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>89.41</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>400</v>
       </c>
       <c r="P7">
-        <v>21254</v>
+        <v>21165</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>34.21</v>
+        <v>23.58</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>90.28</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>400</v>
       </c>
       <c r="P8">
-        <v>21245</v>
+        <v>21139</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -840,13 +840,13 @@
         <v>106.82</v>
       </c>
       <c r="E9">
-        <v>38.18</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>91.72</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>400</v>
       </c>
       <c r="P9">
-        <v>21231</v>
+        <v>21097</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>92.09</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>30.7</v>
+        <v>16.52</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>92.08</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>400</v>
       </c>
       <c r="P10">
-        <v>21227</v>
+        <v>21086</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>85</v>
+        <v>90.33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>34.25</v>
+        <v>24.37</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>89.55</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>400</v>
       </c>
       <c r="P11">
-        <v>21245</v>
+        <v>21146</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>90.81</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85</v>
+        <v>90.83</v>
       </c>
       <c r="H15">
-        <v>4.19</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>350</v>
       </c>
       <c r="P15">
-        <v>19383</v>
+        <v>19183</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>85</v>
+        <v>93.13</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>28.65</v>
+        <v>12.39</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>85</v>
+        <v>93.13</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>400</v>
       </c>
       <c r="P16">
-        <v>21217</v>
+        <v>21054</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1154,13 +1154,13 @@
         <v>103.39</v>
       </c>
       <c r="E17">
-        <v>25.15</v>
+        <v>18.53</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>85</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>85</v>
+        <v>88.3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>298.54</v>
       </c>
       <c r="P17">
-        <v>15178</v>
+        <v>15112</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1204,13 +1204,13 @@
         <v>108.65</v>
       </c>
       <c r="E18">
-        <v>36.35</v>
+        <v>4.25</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>93.56</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>85</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>400</v>
       </c>
       <c r="P18">
-        <v>21213</v>
+        <v>21042</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1254,13 +1254,13 @@
         <v>106.54</v>
       </c>
       <c r="E19">
-        <v>38.46</v>
+        <v>10.62</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>85</v>
+        <v>91.45</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>85</v>
+        <v>91.39</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>400</v>
       </c>
       <c r="P19">
-        <v>21234</v>
+        <v>21106</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>85</v>
+        <v>92.61</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>29.72</v>
+        <v>14.57</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>85</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>400</v>
       </c>
       <c r="P20">
-        <v>21223</v>
+        <v>21071</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>93.78</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.33</v>
+        <v>9.74</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>85</v>
+        <v>93.81</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>400</v>
       </c>
       <c r="P21">
-        <v>21211</v>
+        <v>21035</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85</v>
+        <v>93.62</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.66</v>
+        <v>10.43</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>85</v>
+        <v>93.62</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>400</v>
       </c>
       <c r="P22">
-        <v>21212</v>
+        <v>21040</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>91.94</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>31.06</v>
+        <v>17.81</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>85</v>
+        <v>91.31</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>400</v>
       </c>
       <c r="P23">
-        <v>21229</v>
+        <v>21097</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1574,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H27">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>85</v>
+        <v>72.83</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>92.38</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>350</v>
       </c>
       <c r="P27">
-        <v>19352</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>94.92</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>25.06</v>
+        <v>5.24</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>400</v>
       </c>
       <c r="P28">
-        <v>21199</v>
+        <v>21001</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -1668,13 +1668,13 @@
         <v>104.81</v>
       </c>
       <c r="E29">
-        <v>23.22</v>
+        <v>13.77</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>85</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>85</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>298.03</v>
       </c>
       <c r="P29">
-        <v>15133</v>
+        <v>15039</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -1718,31 +1718,31 @@
         <v>110.27</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>95.17</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>99.41</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>95.15000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>85</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>24.58</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>85</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>400</v>
       </c>
       <c r="P30">
-        <v>21197</v>
+        <v>20994</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>85</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>25.59</v>
+        <v>6.31</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>85</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>400</v>
       </c>
       <c r="P32">
-        <v>21202</v>
+        <v>21009</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1868,13 +1868,13 @@
         <v>110.06</v>
       </c>
       <c r="E33">
-        <v>34.94</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>85</v>
+        <v>94.97</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>85</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>400</v>
       </c>
       <c r="P33">
-        <v>21199</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1918,13 +1918,13 @@
         <v>110.44</v>
       </c>
       <c r="E34">
-        <v>95.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>85</v>
+        <v>95.33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>24.24</v>
+        <v>98.89</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>85</v>
+        <v>95.34</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>400</v>
       </c>
       <c r="P34">
-        <v>21195</v>
+        <v>20988</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1968,13 +1968,13 @@
         <v>108.95</v>
       </c>
       <c r="E35">
-        <v>36.05</v>
+        <v>3.81</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>85</v>
+        <v>93.87</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>85</v>
+        <v>93.37</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>400</v>
       </c>
       <c r="P35">
-        <v>21210</v>
+        <v>21038</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2025,7 +2025,7 @@
         <v>29</v>
       </c>
       <c r="P39">
-        <v>530600.0356819797</v>
+        <v>526683.7325690843</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2038,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="P41">
-        <v>574300</v>
+        <v>570383</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2046,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="P43">
-        <v>0.0429</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="45" spans="1:16">
